--- a/medicine/Pharmacie/Monopole_du_pharmacien/Monopole_du_pharmacien.xlsx
+++ b/medicine/Pharmacie/Monopole_du_pharmacien/Monopole_du_pharmacien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En  France, le monopole du pharmacien est défini par le code de la santé publique (livre II, titre Ier) [1]  et a pour objectif la primauté des intérêts de la santé publique (sauvegarde des malades) sur la rentabilité[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En  France, le monopole du pharmacien est défini par le code de la santé publique (livre II, titre Ier)   et a pour objectif la primauté des intérêts de la santé publique (sauvegarde des malades) sur la rentabilité.
 Pour le pharmacien, il s'agit d'un contrat passé entre lui et l'État, justifié par des compétences reconnues (diplôme).
-L'intérêt économique est un avantage certain du monopole, en contrepartie le pharmacien s'engage à respecter une réglementation : exercice personnel[3], propriété de l'officine, embauche obligatoire d'assistants en fonction d'une tranche de chiffre d'affaires afin d'assurer un encadrement suffisant pour la délivrance de produits de santé.
+L'intérêt économique est un avantage certain du monopole, en contrepartie le pharmacien s'engage à respecter une réglementation : exercice personnel, propriété de l'officine, embauche obligatoire d'assistants en fonction d'une tranche de chiffre d'affaires afin d'assurer un encadrement suffisant pour la délivrance de produits de santé.
 Tout produit inclus dans le monopole doit répondre à 3 conditions : 
 Exclusivité de la vente et de la fabrication par des entreprises pharmaceutiques,
 Respect de la réglementation pharmaceutique du code de la santé publique,
@@ -519,7 +531,9 @@
           <t>Les médicaments soumis au monopole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Médicaments destinés à l'usage de la médecine humaine
 Objets et pansement, articles conformes à la pharmacopée, insecticides et acaricides
